--- a/theo/outputs/COP/correlations.xlsx
+++ b/theo/outputs/COP/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.2562218426697822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.06814220508709433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.08965536244892258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.603262745241364</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.1557059615729908</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0246864724469414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02484189125627723</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2801248481527864</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2760557022326978</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0246864724469414</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02484189125627723</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2801248481527864</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2760557022326978</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.05971976691265056</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.09252073480220885</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.03125645420591555</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.2562218426697822</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.01185326145315976</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.01003921001517667</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.09267881189008086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4362194304910056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1011385239819993</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1007975189866771</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5052905746829598</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5007574488331696</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.09456943978010775</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.09487660104935847</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4675742871937257</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4630659531645073</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.01520676366186781</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>0.006583851189754427</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.008253632099114743</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.06814220508709433</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.01185326145315976</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8750221432474136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07617010421410816</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.0529484462842069</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.04936944518333939</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.04894949857661755</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.05302575036863113</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.0528414416824982</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1031124485548187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.102431762496785</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.05503777605346583</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.05292325936418929</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.2507476861289071</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1516074844736609</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9579415319932891</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.08965536244892258</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.01003921001517667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8750221432474136</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1390403172207382</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.006551404027539045</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1038244172294481</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1050937558313918</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.01555529099229609</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.01470055695131283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1229045286064041</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.121600639423501</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.03270123347864504</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.03017534205996049</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.249207867361184</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1384763862475627</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8083309926858305</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.603262745241364</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.09267881189008086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07617010421410816</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1390403172207382</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.04711873619461394</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.002064931509140855</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.00166426886042569</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.1307875694548935</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.1316342736847506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.007536160384536288</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.007754893069500926</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.1326143615839004</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.1334363204277415</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1256631566421388</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1689372524362841</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.08387395283640553</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.1557059615729908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4362194304910056</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.0529484462842069</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.006551404027539045</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.04711873619461394</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.101694114773766</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.102249525849727</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5560989799914559</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5603363809841658</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1426680614146954</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1436695753354724</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5640045079189173</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5683407036451223</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.09282670675800678</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>-0.07406956712669178</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.04235928620275708</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0246864724469414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1011385239819993</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.04936944518333939</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1038244172294481</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.002064931509140855</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.101694114773766</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998259973938368</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1882431341791054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1881259953614998</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.09569002299135682</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.09490553071937136</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1676440406072772</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1672953426076544</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.09479182488211685</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.05490265114895447</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.0473131765964357</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02484189125627723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1007975189866771</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.04894949857661755</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1050937558313918</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.00166426886042569</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.102249525849727</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998259973938368</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1885850305345033</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.188478488170911</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.09620003451555262</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0954818666142422</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.167840232399755</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1674968726016635</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.09847938083615437</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.0561768950101173</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.04695626633790147</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2801248481527864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5052905746829598</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.05302575036863113</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.01555529099229609</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.1307875694548935</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5560989799914559</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1882431341791054</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1885850305345033</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998767651656612</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04900098188516843</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04970783787074106</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9739265329226252</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9739173245291323</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.07497569398300567</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>0.07711392927969923</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>0.04824593881636705</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2760557022326978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5007574488331696</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.0528414416824982</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.01470055695131283</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.1316342736847506</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5603363809841658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1881259953614998</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.188478488170911</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998767651656612</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04953028186864834</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.05020014899320762</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9739623842015416</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9741880616557222</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.07631623640275662</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>0.07840139952852923</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>0.0477517909833679</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0246864724469414</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.09456943978010775</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1031124485548187</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1229045286064041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.007536160384536288</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1426680614146954</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.09569002299135682</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.09620003451555262</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04900098188516843</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04953028186864834</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998259973938368</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1882431341791054</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1881259953614998</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.01839136539699331</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.02958789538230132</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.0932308178452995</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02484189125627723</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.09487660104935847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.102431762496785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.121600639423501</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.007754893069500926</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1436695753354724</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.09490553071937136</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.0954818666142422</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04970783787074106</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.05020014899320762</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998259973938368</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1885850305345033</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.188478488170911</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.01842435120625018</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.02938708094267835</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.0925782365549743</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2801248481527864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4675742871937257</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.05503777605346583</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.03270123347864504</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.1326143615839004</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5640045079189173</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1676440406072772</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.167840232399755</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9739265329226252</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9739623842015416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1882431341791054</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1885850305345033</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998767651656612</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.05414448580699907</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>0.08016985057404188</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.04735733128612019</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2760557022326978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4630659531645073</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.05292325936418929</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.03017534205996049</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.1334363204277415</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5683407036451223</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1672953426076544</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1674968726016635</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9739173245291323</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9741880616557222</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1881259953614998</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.188478488170911</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998767651656612</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.05495969316916979</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>0.08150638923823272</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.04513602088662365</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.05971976691265056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.01520676366186781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.2507476861289071</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.249207867361184</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1256631566421388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.09282670675800678</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.09479182488211685</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.09847938083615437</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.07497569398300567</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.07631623640275662</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.01839136539699331</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.01842435120625018</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>0.05414448580699907</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>0.05495969316916979</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5802243438404387</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.299972745762971</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.09252073480220885</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>0.006583851189754427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1516074844736609</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1384763862475627</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1689372524362841</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>-0.07406956712669178</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.05490265114895447</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.0561768950101173</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>0.07711392927969923</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>0.07840139952852923</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.02958789538230132</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.02938708094267835</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>0.08016985057404188</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>0.08150638923823272</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5802243438404387</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2283738757130449</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.03125645420591555</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.008253632099114743</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9579415319932891</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8083309926858305</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.08387395283640553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.04235928620275708</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.0473131765964357</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.04695626633790147</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>0.04824593881636705</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>0.0477517909833679</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.0932308178452995</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.0925782365549743</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.04735733128612019</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.04513602088662365</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.299972745762971</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2283738757130449</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.3272827540888151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.05001180276907551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.04587789559050123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2854717979141894</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3191110186654759</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02833471353933369</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02806972633506543</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1434971494078895</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.14401544511376</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02833471353933369</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02806972633506543</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1434971494078895</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.14401544511376</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.01022527410640282</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.03940333046118032</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.009080624452520678</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.3272827540888151</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.04603556055625625</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.04516662721046709</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.3121562909431371</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.871889095792302</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.03781756703895824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.03790628225056135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2138903847060874</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2095889494013851</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05341938424128594</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05327339814603132</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1969692785357806</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.192726244705908</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.001025832212561163</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.03661257629562476</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.009202469225923096</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.05001180276907551</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.04603556055625625</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5398688522243635</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.02750712780673987</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.02346204776893053</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.03752582495151534</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.04187507839043293</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03990554422997123</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.04119828981017887</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1662410450069779</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1660841941225099</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.008001335567853731</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.005049658892803333</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4758546277268774</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3222320099631266</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9737074198387623</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.04587789559050123</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.04516662721046709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5398688522243635</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1657232459585071</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.04572283578051945</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1761585171449212</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1790395902697986</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.002991369300623313</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.00291760299260282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.1051360809118972</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.1072957148036328</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.03917980731896963</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.03776444284491035</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.4834394382904869</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1077209449519447</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.4926510316541191</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2854717979141894</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.3121562909431371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.02750712780673987</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1657232459585071</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2758987462263903</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.02479504981763048</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.02484113151729074</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.05932050138332048</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.06006819458365767</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.02415562978500909</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.02412400655609141</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.05918119880352679</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.05992434835515405</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1445542711678591</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1415120630619358</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.07265425542286093</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3191110186654759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.871889095792302</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.02346204776893053</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.04572283578051945</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.2758987462263903</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05603936182816359</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05567853589686477</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2918818118722853</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2959185015647536</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06951369174400976</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06847108624001162</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.294341339661315</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2982475774780678</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02337534066325914</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.0511630722647857</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.0005920293424773502</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02833471353933369</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.03781756703895824</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.03752582495151534</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1761585171449212</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.02479504981763048</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05603936182816359</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9993714050425361</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1749403350933564</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1743907185409255</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.07584419932022657</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.07333937569597701</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1646298701089892</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1641247203275733</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2244665940428266</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1369558757415911</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.023078073727173</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02806972633506543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.03790628225056135</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.04187507839043293</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1790395902697986</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.02484113151729074</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05567853589686477</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9993714050425361</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1752589388557767</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1748248318735897</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.07449070290189104</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.07214123938866078</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1651629952857251</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1647520512775799</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2319824859609482</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1392458888406126</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.02710766025171247</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1434971494078895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2138903847060874</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03990554422997123</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.002991369300623313</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.05932050138332048</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2918818118722853</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1749403350933564</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1752589388557767</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996511042717717</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.00568199836170055</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.004988774666109587</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9690590668185302</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9687994504547438</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.04462541966829682</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.0305506975403599</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.01679264221429538</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.14401544511376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2095889494013851</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.04119828981017887</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.00291760299260282</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.06006819458365767</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2959185015647536</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1743907185409255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1748248318735897</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996511042717717</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.004290678064011601</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.003687265613043857</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9690289855770634</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9694343303467408</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.0458927349567474</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.03016890207878624</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.01791583241319172</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02833471353933369</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05341938424128594</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1662410450069779</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.1051360809118972</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.02415562978500909</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06951369174400976</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.07584419932022657</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.07449070290189104</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.00568199836170055</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.004290678064011601</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9993714050425361</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1749403350933564</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1743907185409255</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.05646485572538157</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02434627170086561</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1417872680138912</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02806972633506543</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05327339814603132</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1660841941225099</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.1072957148036328</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.02412400655609141</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06847108624001162</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.07333937569597701</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.07214123938866078</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.004988774666109587</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.003687265613043857</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9993714050425361</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1752589388557767</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1748248318735897</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.05434108429816661</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.02391128596455171</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1411432208817495</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1434971494078895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1969692785357806</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.008001335567853731</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.03917980731896963</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.05918119880352679</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.294341339661315</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1646298701089892</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1651629952857251</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9690590668185302</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9690289855770634</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1749403350933564</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1752589388557767</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996511042717717</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03580474491943993</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.02621343412090463</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.01805136358453185</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.14401544511376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.192726244705908</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.005049658892803333</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.03776444284491035</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.05992434835515405</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2982475774780678</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1641247203275733</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1647520512775799</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9687994504547438</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9694343303467408</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1743907185409255</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1748248318735897</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996511042717717</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.03714296503706645</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.02587633019616122</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.0152620836363452</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.01022527410640282</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.001025832212561163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4758546277268774</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.4834394382904869</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1445542711678591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02337534066325914</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2244665940428266</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2319824859609482</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.04462541966829682</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.0458927349567474</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.05646485572538157</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.05434108429816661</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03580474491943993</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.03714296503706645</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4476605698495701</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4978484281413375</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.03940333046118032</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.03661257629562476</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3222320099631266</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1077209449519447</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1415120630619358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.0511630722647857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1369558757415911</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1392458888406126</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.0305506975403599</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.03016890207878624</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02434627170086561</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.02391128596455171</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.02621343412090463</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.02587633019616122</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4476605698495701</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.3453766515065646</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.009080624452520678</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.009202469225923096</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9737074198387623</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.4926510316541191</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.07265425542286093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.0005920293424773502</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.023078073727173</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.02710766025171247</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.01679264221429538</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.01791583241319172</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1417872680138912</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1411432208817495</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.01805136358453185</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.0152620836363452</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4978484281413375</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.3453766515065646</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.2793960139154872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1037234520381465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1012842314984682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5162740402854075</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.2812815339815118</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01116335887351872</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01150358347975537</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06485648425805604</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06688603941933052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01116335887351872</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01150358347975537</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06485648425805604</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06688603941933052</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.00124080685083098</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.01193978331041885</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.003180361393870316</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.2793960139154872</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.05437002021199575</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.04775524940895417</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.2462223989795993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9484566672309379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02431369518384572</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02376699094270875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1432007545525034</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1361458098543793</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03260616346745691</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03297498933485973</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1330821829116275</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1260926595787192</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.005376193187705877</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01969067914304715</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.005807504466717076</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1037234520381465</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.05437002021199575</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6209819798655216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.08072144542374649</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.04935045290944542</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.02485961462201846</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0274570786386062</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.009248408501600995</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.01000887413375727</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.08519483496399229</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.08575136271855614</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.003843825614519798</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.001632102695675053</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4320752169414075</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2496737568570415</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9349401409091643</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1012842314984682</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.04775524940895417</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6209819798655216</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1947998622599472</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.05114166154848444</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.03802974457960895</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.03882029995851476</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01142421309629495</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01013239519971941</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.06807015053635124</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.07103512242520517</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01239370691353381</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01019198043457064</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4385717676943661</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1338250974914013</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5422877293893877</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5162740402854075</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.2462223989795993</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.08072144542374649</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1947998622599472</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.2711206379810552</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01466403046436234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0144333789873534</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.08213158225747416</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.0778076544927907</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.003266076040946754</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.003118692421114244</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.07894089385086467</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.07470016204457691</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.131577586931623</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1539315813825969</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.08589591180180361</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.2812815339815118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9484566672309379</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.04935045290944542</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.05114166154848444</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.2711206379810552</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03212904331665351</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03259789800961532</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1778209885074163</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1838168524402725</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03153363601684447</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03173975551974903</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1777116316213419</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1836611964246381</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.002258679268645581</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.01898167900417953</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.005327944650619346</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01116335887351872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02431369518384572</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.02485961462201846</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.03802974457960895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01466403046436234</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03212904331665351</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9968768862751276</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.176378596010044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1752633980794127</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.009825697962769853</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.008329137744127673</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1727955711619714</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.171706703175109</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.0746336932543193</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.05691576602309263</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.05270831561787877</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01150358347975537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02376699094270875</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0274570786386062</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.03882029995851476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0144333789873534</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03259789800961532</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9968768862751276</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1761499001018132</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1761345301124127</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.009172867715092629</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.007793677471743853</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1724613592481945</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1724389605740447</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.07879579428985503</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.05978685826341442</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.05230153680252196</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06485648425805604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1432007545525034</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.009248408501600995</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01142421309629495</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.08213158225747416</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1778209885074163</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.176378596010044</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1761499001018132</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9968178647018654</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.002029595600771302</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.001989713830449973</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9692253967616822</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9661732599074264</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0237480275354191</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.001864328507425268</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.0346725939250797</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06688603941933052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1361458098543793</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.01000887413375727</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01013239519971941</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.0778076544927907</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1838168524402725</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1752633980794127</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1761345301124127</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9968178647018654</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.003098244687688063</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.003070497009402063</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9663362706426739</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9694341491919876</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.02313362704643272</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.002743932085820869</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03392678929111592</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01116335887351872</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03260616346745691</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.08519483496399229</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.06807015053635124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.003266076040946754</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03153363601684447</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.009825697962769853</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.009172867715092629</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.002029595600771302</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.003098244687688063</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9968768862751276</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.176378596010044</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1752633980794127</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01411288393398568</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.01996179195568284</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.08977287528181434</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01150358347975537</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03297498933485973</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.08575136271855614</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.07103512242520517</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.003118692421114244</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03173975551974903</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.008329137744127673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.007793677471743853</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.001989713830449973</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.003070497009402063</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9968768862751276</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1761499001018132</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1761345301124127</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01087719482425843</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01857825558819329</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.09177008549952248</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06485648425805604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1330821829116275</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.003843825614519798</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01239370691353381</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.07894089385086467</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1777116316213419</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1727955711619714</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1724613592481945</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9692253967616822</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9663362706426739</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.176378596010044</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1761499001018132</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9968178647018654</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.01091722066408493</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.000867514199409774</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.01529221854788784</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06688603941933052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1260926595787192</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.001632102695675053</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01019198043457064</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.07470016204457691</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1836611964246381</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.171706703175109</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1724389605740447</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9661732599074264</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9694341491919876</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1752633980794127</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1761345301124127</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9968178647018654</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.01101768756306678</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.002120066541980372</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.01613568150116253</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.00124080685083098</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.005376193187705877</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4320752169414075</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4385717676943661</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.131577586931623</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.002258679268645581</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.0746336932543193</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.07879579428985503</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0237480275354191</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.02313362704643272</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01411288393398568</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01087719482425843</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.01091722066408493</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.01101768756306678</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.440237833796588</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4480231494707524</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.01193978331041885</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01969067914304715</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2496737568570415</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1338250974914013</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1539315813825969</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.01898167900417953</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.05691576602309263</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.05978685826341442</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.001864328507425268</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.002743932085820869</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.01996179195568284</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01857825558819329</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.000867514199409774</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.002120066541980372</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.440237833796588</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2850991450493571</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.003180361393870316</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.005807504466717076</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9349401409091643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5422877293893877</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.08589591180180361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.005327944650619346</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.05270831561787877</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.05230153680252196</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.0346725939250797</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03392678929111592</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.08977287528181434</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.09177008549952248</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.01529221854788784</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.01613568150116253</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4480231494707524</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2850991450493571</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
